--- a/src/controllers/file/results/Summary/spreadsheets/metrics_domain.xlsx
+++ b/src/controllers/file/results/Summary/spreadsheets/metrics_domain.xlsx
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1558194313192549</v>
+        <v>0.14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.631000601812563</v>
+        <v>1.76</v>
       </c>
       <c r="F2" t="n">
-        <v>47.99521295674157</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="3">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.26976905276031</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.500755545199296</v>
+        <v>1.55</v>
       </c>
       <c r="F3" t="n">
-        <v>49.59481018303664</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="4">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1402451059260394</v>
+        <v>0.14</v>
       </c>
       <c r="E4" t="n">
-        <v>1.858103322886715</v>
+        <v>1.94</v>
       </c>
       <c r="F4" t="n">
-        <v>133.8404917901793</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="5">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8.58</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1334170664162863</v>
+        <v>0.13</v>
       </c>
       <c r="E6" t="n">
-        <v>2.060685466888355</v>
+        <v>1.94</v>
       </c>
       <c r="F6" t="n">
-        <v>277.9635831533342</v>
+        <v>262.76</v>
       </c>
     </row>
     <row r="7">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="8">
@@ -625,13 +625,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1373342034024488</v>
+        <v>0.14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.098472921435412</v>
+        <v>2.1</v>
       </c>
       <c r="F8" t="n">
-        <v>453.9342321440222</v>
+        <v>453.93</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>362.48</v>
       </c>
     </row>
     <row r="10">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4983900894116008</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7472912149001212</v>
+        <v>0.74</v>
       </c>
       <c r="F10" t="n">
-        <v>3038.265745394156</v>
+        <v>3145.82</v>
       </c>
     </row>
     <row r="11">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3861297892468558</v>
+        <v>-0.16</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9376280036924922</v>
+        <v>1.33</v>
       </c>
       <c r="F11" t="n">
-        <v>5.565410040160625</v>
+        <v>193.82</v>
       </c>
     </row>
     <row r="12">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3627009039572843</v>
+        <v>0.36</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8418858827504103</v>
+        <v>0.84</v>
       </c>
       <c r="F12" t="n">
-        <v>4490.645290801303</v>
+        <v>4502.51</v>
       </c>
     </row>
     <row r="13">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="14">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3513936857140088</v>
+        <v>0.35</v>
       </c>
       <c r="E14" t="n">
-        <v>0.837660612445975</v>
+        <v>0.89</v>
       </c>
       <c r="F14" t="n">
-        <v>7564.847310856227</v>
+        <v>7340.47</v>
       </c>
     </row>
     <row r="15">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>36.24</v>
       </c>
     </row>
     <row r="16">
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3264788468175431</v>
+        <v>0.33</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9572011709276878</v>
+        <v>0.96</v>
       </c>
       <c r="F16" t="n">
-        <v>10243.1572970674</v>
+        <v>10243.16</v>
       </c>
     </row>
     <row r="17">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="18">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3640505579171498</v>
+        <v>0.23</v>
       </c>
       <c r="E18" t="n">
-        <v>1.533609878991391</v>
+        <v>1.54</v>
       </c>
       <c r="F18" t="n">
-        <v>188.9334056000169</v>
+        <v>165.65</v>
       </c>
     </row>
     <row r="19">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6003277633653757</v>
+        <v>0.61</v>
       </c>
       <c r="E19" t="n">
-        <v>2.43345170281885</v>
+        <v>1.3</v>
       </c>
       <c r="F19" t="n">
-        <v>75.01302809435188</v>
+        <v>89.59</v>
       </c>
     </row>
     <row r="20">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2534734915547026</v>
+        <v>0.24</v>
       </c>
       <c r="E20" t="n">
-        <v>2.016230368488961</v>
+        <v>1.82</v>
       </c>
       <c r="F20" t="n">
-        <v>459.9303472000594</v>
+        <v>412.51</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6751568790547935</v>
+        <v>0.67</v>
       </c>
       <c r="E21" t="n">
-        <v>3.241926856709887</v>
+        <v>4.41</v>
       </c>
       <c r="F21" t="n">
-        <v>25.65053605166761</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="22">
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2293659757032238</v>
+        <v>0.22</v>
       </c>
       <c r="E22" t="n">
-        <v>1.89627702889659</v>
+        <v>2.27</v>
       </c>
       <c r="F22" t="n">
-        <v>784.5513711050572</v>
+        <v>843.46</v>
       </c>
     </row>
     <row r="23">
@@ -985,13 +985,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6928401533974289</v>
+        <v>0.66</v>
       </c>
       <c r="E23" t="n">
-        <v>1.568773155672461</v>
+        <v>2.73</v>
       </c>
       <c r="F23" t="n">
-        <v>20.14328738578718</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2124092184146143</v>
+        <v>0.21</v>
       </c>
       <c r="E24" t="n">
-        <v>1.825024513677243</v>
+        <v>1.83</v>
       </c>
       <c r="F24" t="n">
-        <v>1211.557033335225</v>
+        <v>1211.56</v>
       </c>
     </row>
     <row r="25">
@@ -1033,13 +1033,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6865886217148843</v>
+        <v>0.49</v>
       </c>
       <c r="E25" t="n">
-        <v>1.469107701011207</v>
+        <v>2.97</v>
       </c>
       <c r="F25" t="n">
-        <v>21.39278452373199</v>
+        <v>689.41</v>
       </c>
     </row>
   </sheetData>
